--- a/处理后的PCIe数据表格.xlsx
+++ b/处理后的PCIe数据表格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byte\Documents\GitHub\data_processing_of_missing_hwdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F988E95A-1339-43DD-B7F0-857F2E786B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797E0A38-7EDB-44AE-8F78-08394EB1FE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{EE384278-70DE-4764-8C3E-252BD6AA4C53}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3960" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3720" uniqueCount="733">
   <si>
     <t>Column1</t>
   </si>
@@ -1894,469 +1894,379 @@
     <t>10ec:8126</t>
   </si>
   <si>
+    <t>Bridge</t>
+  </si>
+  <si>
+    <t>0680</t>
+  </si>
+  <si>
+    <t>10de:22a3</t>
+  </si>
+  <si>
+    <t>NVIDIA Corporation Device [10de:1796]</t>
+  </si>
+  <si>
+    <t>10de:2330</t>
+  </si>
+  <si>
+    <t>NVIDIA Corporation Device [10de:16c1]</t>
+  </si>
+  <si>
+    <t>4910</t>
+  </si>
+  <si>
+    <t>490f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel Corporation DG1 </t>
+  </si>
+  <si>
+    <t>Iris Xe G</t>
+  </si>
+  <si>
+    <t>490d</t>
+  </si>
+  <si>
+    <t>490e</t>
+  </si>
+  <si>
+    <t>ASUSTeK Computer Inc. Device [1043:8877]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanced Micro Devices, Inc. [AMD/ATI] Device </t>
+  </si>
+  <si>
+    <t>CLEVO/KAPOK Computer Device [1558:8535]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel Corporation CometLake-H GT2 [UHD Graphics] </t>
+  </si>
+  <si>
+    <t>8086:9bc4</t>
+  </si>
+  <si>
+    <t>8086:06d3</t>
+  </si>
+  <si>
+    <t>8086:06b5</t>
+  </si>
+  <si>
+    <t>8086:06b6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NVIDIA Corporation TU117M [GeForce GTX 1650 Ti Mobile] </t>
+  </si>
+  <si>
+    <t>10de:1f95</t>
+  </si>
+  <si>
+    <t>10de:10fa</t>
+  </si>
+  <si>
+    <t>NVIDIA Corporation Device [10de:0000]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solid State Storage Technology Corporation PLEXTOR M9PGN Plus NVMe SSD M.2 </t>
+  </si>
+  <si>
+    <t>1e95:35f1</t>
+  </si>
+  <si>
+    <t>Marvell Technology Group Ltd. Device [1b4b:1092]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realtek Semiconductor Co., Ltd. RTL8411B PCI Express Card Reader </t>
+  </si>
+  <si>
+    <t>10ec:5287</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Realtek Semiconductor Co., Ltd. Device [10ec:0123] Jackpot</t>
+  </si>
+  <si>
+    <t>3442</t>
+  </si>
+  <si>
+    <t>3443</t>
+  </si>
+  <si>
+    <t>3445</t>
+  </si>
+  <si>
+    <t>3446</t>
+  </si>
+  <si>
+    <t>3447</t>
+  </si>
+  <si>
+    <t>3448</t>
+  </si>
+  <si>
+    <t>344b</t>
+  </si>
+  <si>
+    <t>Performance counters</t>
+  </si>
+  <si>
+    <t>344a</t>
+  </si>
+  <si>
+    <t>2880</t>
+  </si>
+  <si>
+    <t>344c</t>
+  </si>
+  <si>
+    <t>344d</t>
+  </si>
+  <si>
+    <t>344f</t>
+  </si>
+  <si>
+    <t>3457</t>
+  </si>
+  <si>
+    <t>3458</t>
+  </si>
+  <si>
+    <t>3459</t>
+  </si>
+  <si>
+    <t>345a</t>
+  </si>
+  <si>
+    <t>345b</t>
+  </si>
+  <si>
+    <t>345c</t>
+  </si>
+  <si>
+    <t>345d</t>
+  </si>
+  <si>
+    <t>345e</t>
+  </si>
+  <si>
+    <t>345f</t>
+  </si>
+  <si>
+    <t>Intel Corporation Device 0000</t>
+  </si>
+  <si>
+    <t>Advanced Micro Devices, Inc. [AMD] Device [1022:14dd] Subsystem: Biostar Microtech Int'l Corp Device [1565:370d]</t>
+  </si>
+  <si>
+    <t>Device [7d76:1462] Subsystem: Micro-Star International Co., Ltd. [MSI] Device [1462:7d76]</t>
+  </si>
+  <si>
+    <t>AIstone Global Limited Device [1d05:137d] Subsystem: AIstone Global Limited Device [1d05:137d]</t>
+  </si>
+  <si>
+    <t>Advanced Micro Devices, Inc. [AMD] Family 17h-19h Internal PCIe GPP Bridge [1022:14b9] Subsystem: Lenovo Device [17aa:3860]</t>
+  </si>
+  <si>
+    <t>Toshiba Corporation Device [1179:ff1e] Subsystem: Toshiba Corporation Device [1179:ff1e]</t>
+  </si>
+  <si>
+    <t>Lenovo Device [17aa:230a] Subsystem: Lenovo Device [17aa:2309]</t>
+  </si>
+  <si>
+    <t>Yangtze Memory Technologies Co.,Ltd PC300 NVMe SSD (DRAM-less) [1e49:1e49] Subsystem: Lenovo ThinkPad T480 [17aa:225d]</t>
+  </si>
+  <si>
+    <t>ASUSTeK Computer Inc. Device [1043:8877] Subsystem: CLEVO/KAPOK Computer Device [1558:8535] Subsystem: CLEVO/KAPOK Computer Device [1558:8535]</t>
+  </si>
+  <si>
+    <t>Micro-Star International Co., Ltd. [MSI] Device [1462:7d76] Subsystem: Micro-Star International Co., Ltd. [MSI] Device [1462:7d76]</t>
+  </si>
+  <si>
+    <t>INNOGRIT Corporation NVMe SSD Controller IG5236 [1dbe:5236] Subsystem: Tongfang Hongkong Limited Family 19h PSP/CCP [1d05:160a]</t>
+  </si>
+  <si>
+    <t>MAXIO Technology (Hangzhou) Ltd. NVMe SSD Controller MAP1602 (DRAM-less) [1e4b:1602] Subsystem: Lenovo Device [17aa:3814] Subsystem: Lenovo Device [17aa:3805]</t>
+  </si>
+  <si>
+    <t>Xiaomi Device [1d72:2135] Subsystem: Toshiba Corporation Device [1179:ff1e]</t>
+  </si>
+  <si>
+    <t>QUANTA Computer Inc Device [152d:1260] Subsystem: QUANTA Computer Inc Device [152d:1260] Subsystem: QUANTA Computer Inc Device [152d:1260] Subsystem: QUANTA Computer Inc Device [152d:1260] Subsystem: QUANTA Computer Inc Device [152d:1260] Subsystem: QUANTA Computer Inc Device [152d:1260] Subsystem: Intel Corporation Dual Band Wi-Fi 5(802.11ac) Wireless-AC 9560 160MHz 2x2 [Jefferson Peak] [8086:0034]</t>
+  </si>
+  <si>
+    <t>QUANTA Computer Inc Device [152d:1260] Subsystem: QUANTA Computer Inc Device [152d:1260] Subsystem: QUANTA Computer Inc Device [152d:1260] Subsystem: QUANTA Computer Inc Device [152d:1260] Subsystem: QUANTA Computer Inc Device [152d:1260] Subsystem: QUANTA Computer Inc Device [152d:1260]</t>
+  </si>
+  <si>
+    <t>QUANTA Computer Inc Device [152d:1260] Subsystem: QUANTA Computer Inc Device [152d:1260] Subsystem: QUANTA Computer Inc Device [152d:1260] Subsystem: QUANTA Computer Inc Device [152d:1260] Subsystem: QUANTA Computer Inc Device [152d:1260]</t>
+  </si>
+  <si>
+    <t>CLEVO/KAPOK Computer Device [1558:8535] Subsystem: CLEVO/KAPOK Computer Device [1558:8535] Subsystem: CLEVO/KAPOK Computer Device [1558:8535] Subsystem: CLEVO/KAPOK Computer Device [1558:8535] Subsystem: CLEVO/KAPOK Computer Device [1558:8535] Subsystem: CLEVO/KAPOK Computer Device [1558:8535]</t>
+  </si>
+  <si>
+    <t>CLEVO/KAPOK Computer Device [1558:8535] Subsystem: CLEVO/KAPOK Computer Device [1558:8535] Subsystem: CLEVO/KAPOK Computer Device [1558:8535]</t>
+  </si>
+  <si>
+    <t>CLEVO/KAPOK Computer Device [1558:8535] Subsystem: CLEVO/KAPOK Computer Device [1558:8535] Subsystem: CLEVO/KAPOK Computer Device [1558:8535] Subsystem: CLEVO/KAPOK Computer Device [1558:8535] Subsystem: CLEVO/KAPOK Computer Device [1558:8535]</t>
+  </si>
+  <si>
+    <t>Intel Corporation Device [8086:2212] Subsystem: Intel Corporation Device [8086:7270]</t>
+  </si>
+  <si>
+    <t>Advanced Micro Devices, Inc. [AMD] Pink Sardine USB4/Thunderbolt NHI controller #2 [1022:1669] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135]</t>
+  </si>
+  <si>
+    <t>Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135]</t>
+  </si>
+  <si>
+    <t>Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135]</t>
+  </si>
+  <si>
+    <t>Intel Corporation Device [8086:7270] Subsystem: Intel Corporation Device [8086:7270] Subsystem: Intel Corporation Device [8086:7270] Subsystem: Intel Corporation Device [8086:7270] Subsystem: Intel Corporation Device [8086:7270] Subsystem: Intel Corporation Device [8086:7270] Subsystem: Intel Corporation Device [8086:7270]</t>
+  </si>
+  <si>
+    <t>Intel Corporation Device [8086:7270] Subsystem: Intel Corporation Device [8086:7270] Subsystem: Intel Corporation Device [8086:7270] Subsystem: Intel Corporation Device [8086:7270] Subsystem: Intel Corporation Device [8086:7270] Subsystem: Intel Corporation Device [8086:7270]</t>
+  </si>
+  <si>
+    <t>CLEVO/KAPOK Computer Device [1558:0156] Subsystem: CLEVO/KAPOK Computer Device [1558:0156] Subsystem: CLEVO/KAPOK Computer Device [1558:0156] Subsystem: CLEVO/KAPOK Computer Device [1558:0156] Subsystem: CLEVO/KAPOK Computer Device [1558:0156] Subsystem: CLEVO/KAPOK Computer Device [1558:0156]</t>
+  </si>
+  <si>
+    <t>CLEVO/KAPOK Computer Device [1558:0156] Subsystem: CLEVO/KAPOK Computer Device [1558:0156] Subsystem: CLEVO/KAPOK Computer Device [1558:0156] Subsystem: Intel Corporation Single Band Wi-Fi 6(802.11ax) AX101 80MHz 1x1 [Harrison Peak] [8086:0244] Subsystem: CLEVO/KAPOK Computer Device [1558:0156] Subsystem: CLEVO/KAPOK Computer Device [1558:0156] Subsystem: CLEVO/KAPOK Computer Device [1558:0156] Subsystem: CLEVO/KAPOK Computer Device [1558:0156]</t>
+  </si>
+  <si>
+    <t>CLEVO/KAPOK Computer Device [1558:0156] Subsystem: CLEVO/KAPOK Computer Device [1558:0156] Subsystem: CLEVO/KAPOK Computer Device [1558:0156] Subsystem: CLEVO/KAPOK Computer Device [1558:0156] Subsystem: CLEVO/KAPOK Computer Device [1558:0156]</t>
+  </si>
+  <si>
+    <t>Lenovo Device [17aa:384b] Subsystem: Lenovo Device [17aa:3d23] Subsystem: Lenovo Device [17aa:383d]</t>
+  </si>
+  <si>
+    <t>COMPAL Electronics Inc Device [14c0:0148] Subsystem: COMPAL Electronics Inc Device [14c0:0148] Subsystem: Lenovo Device [17aa:383c] Subsystem: Lenovo Device [17aa:383f] Subsystem: Lenovo Device [17aa:3846] Subsystem: COMPAL Electronics Inc Device [14c0:0148] Subsystem: Lenovo Device [17aa:383b] Subsystem: Lenovo Device [17aa:3829]</t>
+  </si>
+  <si>
+    <t>Lenovo Device [17aa:382d] Subsystem: Intel Corporation Wi-Fi 6E AX211 160MHz [8086:0094] Subsystem: Lenovo Device [17aa:3830] Subsystem: Lenovo Device [17aa:3832] Subsystem: Lenovo Device [17aa:3831] Subsystem: Lenovo Device [17aa:3818] Subsystem: Lenovo Device [17aa:3836] Subsystem: Lenovo Device [17aa:3837]</t>
+  </si>
+  <si>
+    <t>Lenovo Device [17aa:3801] Subsystem: Lenovo Device [17aa:3802] Subsystem: Lenovo Device [17aa:3827] Subsystem: Lenovo Device [17aa:381f]</t>
+  </si>
+  <si>
+    <t>Lenovo Device [17aa:231e] Subsystem: Lenovo Device [17aa:231e] Subsystem: Lenovo Device [17aa:231e]</t>
+  </si>
+  <si>
+    <t>Lenovo Device [17aa:231e] Subsystem: Lenovo Device [17aa:231e] Subsystem: Lenovo Device [17aa:231e] Subsystem: Lenovo Device [17aa:231e] Subsystem: Lenovo Device [17aa:231e] Subsystem: Lenovo Device [17aa:231e] Subsystem: Lenovo Device [17aa:231e] Subsystem: Lenovo Device [17aa:231e] Subsystem: Lenovo Device [17aa:231e] Subsystem: Lenovo Device [17aa:231e]</t>
+  </si>
+  <si>
+    <t>Lenovo Device [17aa:231e] Subsystem: Intel Corporation Device [8086:0090] Subsystem: Lenovo Device [17aa:231e] Subsystem: Lenovo Device [17aa:231e]</t>
+  </si>
+  <si>
+    <t>Lenovo Device [17aa:231e] Subsystem: Lenovo Device [17aa:231e] Subsystem: Lenovo Device [17aa:231e] Subsystem: Lenovo Device [17aa:231e]</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad T480 [17aa:225e] Subsystem: Lenovo ThinkPad T480 [17aa:225d] Subsystem: Lenovo ThinkPad T480 [17aa:225d] Subsystem: Lenovo ThinkPad T480 [17aa:225d] Subsystem: Lenovo ThinkPad T480 [17aa:225d] Subsystem: Lenovo ThinkPad T480 [17aa:225d] Subsystem: Lenovo ThinkPad T480 [17aa:225d] Subsystem: Lenovo ThinkPad T480 [17aa:225d] Subsystem: Lenovo Device [17aa:225d] Subsystem: Lenovo Device [17aa:225d] Subsystem: Lenovo Device [17aa:225d] Subsystem: Lenovo ThinkPad T480 [17aa:225d] Subsystem: Lenovo ThinkPad T480 [17aa:225d] Subsystem: Lenovo ThinkPad T480 [17aa:225d] Subsystem: Lenovo ThinkPad T480 [17aa:225d]</t>
+  </si>
+  <si>
+    <t>ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882]</t>
+  </si>
+  <si>
+    <t>ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882]</t>
+  </si>
+  <si>
+    <t>ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882]</t>
+  </si>
+  <si>
+    <t>ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8694] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882]</t>
+  </si>
+  <si>
+    <t>ASUSTeK Computer Inc. Volume Management Device NVMe RAID Controller Intel Corporation [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: Rivet Networks Device [1a56:1671] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882]</t>
+  </si>
+  <si>
+    <t>ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:87fb] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882]</t>
+  </si>
+  <si>
+    <t>Lenovo Device [17aa:2309] Subsystem: Lenovo Device [17aa:2309] Subsystem: Lenovo Device [17aa:2309] Subsystem: Intel Corporation Device [8086:0090] Subsystem: Lenovo Device [17aa:2309] Subsystem: Lenovo Device [17aa:2309] Subsystem: Lenovo Device [17aa:2309] Subsystem: Lenovo Device [17aa:2309]</t>
+  </si>
+  <si>
+    <t>Lenovo Device [17aa:2309] Subsystem: Lenovo Device [17aa:2309] Subsystem: Lenovo Device [17aa:2309] Subsystem: Lenovo Device [17aa:2309]</t>
+  </si>
+  <si>
+    <t>AzureWave Device [1a3b:5471] Subsystem: Biostar Microtech Int'l Corp Device [1565:170c]</t>
+  </si>
+  <si>
+    <t>Lenovo Device [17aa:3846] Subsystem: Advanced Micro Devices, Inc. [AMD] Device [1022:1453] Subsystem: Advanced Micro Devices, Inc. [AMD] Device [1022:1453]</t>
+  </si>
+  <si>
+    <t>[Intel]</t>
+  </si>
+  <si>
+    <t>[AMD]</t>
+  </si>
+  <si>
+    <t>[AMD/ATI]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10de:2291</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17cb:0111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8086:550b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://driverscollection.com/Search/PCI%5CVEN_8086%26DEV_550B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intel(R) Ethernet Connection (18) I219-V</t>
+  </si>
+  <si>
     <t>Realtek Semiconductor Co., Ltd. Device [10ec:0123] 涓€涓彲鑳界殑璁惧鍚嶇О:RTL8126 PCI Express 5G Gigabit Ethernet Controller</t>
-  </si>
-  <si>
-    <t>Bridge</t>
-  </si>
-  <si>
-    <t>0680</t>
-  </si>
-  <si>
-    <t>10de:22a3</t>
-  </si>
-  <si>
-    <t>NVIDIA Corporation Device [10de:1796]</t>
-  </si>
-  <si>
-    <t>10de:2330</t>
-  </si>
-  <si>
-    <t>NVIDIA Corporation Device [10de:16c1]</t>
-  </si>
-  <si>
-    <t>4910</t>
-  </si>
-  <si>
-    <t>490f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intel Corporation DG1 </t>
-  </si>
-  <si>
-    <t>Iris Xe G</t>
-  </si>
-  <si>
-    <t>490d</t>
-  </si>
-  <si>
-    <t>490e</t>
-  </si>
-  <si>
-    <t>ASUSTeK Computer Inc. Device [1043:8877]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advanced Micro Devices, Inc. [AMD/ATI] Device </t>
-  </si>
-  <si>
-    <t>CLEVO/KAPOK Computer Device [1558:8535]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intel Corporation CometLake-H GT2 [UHD Graphics] </t>
-  </si>
-  <si>
-    <t>8086:9bc4</t>
-  </si>
-  <si>
-    <t>8086:06d3</t>
-  </si>
-  <si>
-    <t>8086:06b5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10ec:8126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTL8126 PCI Express 5GbE Family Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1cc4:6b14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7a34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0014:7a1f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>345d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8086:06b6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NVIDIA Corporation TU117M [GeForce GTX 1650 Ti Mobile] </t>
-  </si>
-  <si>
-    <t>10de:1f95</t>
-  </si>
-  <si>
-    <t>10de:10fa</t>
-  </si>
-  <si>
-    <t>NVIDIA Corporation Device [10de:0000]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solid State Storage Technology Corporation PLEXTOR M9PGN Plus NVMe SSD M.2 </t>
-  </si>
-  <si>
-    <t>1e95:35f1</t>
-  </si>
-  <si>
-    <t>Marvell Technology Group Ltd. Device [1b4b:1092]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realtek Semiconductor Co., Ltd. RTL8411B PCI Express Card Reader </t>
-  </si>
-  <si>
-    <t>10ec:5287</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Realtek Semiconductor Co., Ltd. Device [10ec:0123] Jackpot</t>
-  </si>
-  <si>
-    <t>3442</t>
-  </si>
-  <si>
-    <t>3443</t>
-  </si>
-  <si>
-    <t>3445</t>
-  </si>
-  <si>
-    <t>3446</t>
-  </si>
-  <si>
-    <t>3447</t>
-  </si>
-  <si>
-    <t>3448</t>
-  </si>
-  <si>
-    <t>344b</t>
-  </si>
-  <si>
-    <t>Performance counters</t>
-  </si>
-  <si>
-    <t>344a</t>
-  </si>
-  <si>
-    <t>2880</t>
-  </si>
-  <si>
-    <t>344c</t>
-  </si>
-  <si>
-    <t>344d</t>
-  </si>
-  <si>
-    <t>344f</t>
-  </si>
-  <si>
-    <t>3457</t>
-  </si>
-  <si>
-    <t>3458</t>
-  </si>
-  <si>
-    <t>3459</t>
-  </si>
-  <si>
-    <t>345a</t>
-  </si>
-  <si>
-    <t>345b</t>
-  </si>
-  <si>
-    <t>345c</t>
-  </si>
-  <si>
-    <t>345d</t>
-  </si>
-  <si>
-    <t>345e</t>
-  </si>
-  <si>
-    <t>345f</t>
-  </si>
-  <si>
-    <t>Intel Corporation Device 0000</t>
-  </si>
-  <si>
-    <t>Advanced Micro Devices, Inc. [AMD] Device [1022:14dd] Subsystem: Biostar Microtech Int'l Corp Device [1565:370d]</t>
-  </si>
-  <si>
-    <t>Device [7d76:1462] Subsystem: Micro-Star International Co., Ltd. [MSI] Device [1462:7d76]</t>
-  </si>
-  <si>
-    <t>AIstone Global Limited Device [1d05:137d] Subsystem: AIstone Global Limited Device [1d05:137d]</t>
-  </si>
-  <si>
-    <t>Advanced Micro Devices, Inc. [AMD] Family 17h-19h Internal PCIe GPP Bridge [1022:14b9] Subsystem: Lenovo Device [17aa:3860]</t>
-  </si>
-  <si>
-    <t>Toshiba Corporation Device [1179:ff1e] Subsystem: Toshiba Corporation Device [1179:ff1e]</t>
-  </si>
-  <si>
-    <t>Lenovo Device [17aa:230a] Subsystem: Lenovo Device [17aa:2309]</t>
-  </si>
-  <si>
-    <t>Yangtze Memory Technologies Co.,Ltd PC300 NVMe SSD (DRAM-less) [1e49:1e49] Subsystem: Lenovo ThinkPad T480 [17aa:225d]</t>
-  </si>
-  <si>
-    <t>ASUSTeK Computer Inc. Device [1043:8877] Subsystem: CLEVO/KAPOK Computer Device [1558:8535] Subsystem: CLEVO/KAPOK Computer Device [1558:8535]</t>
-  </si>
-  <si>
-    <t>Micro-Star International Co., Ltd. [MSI] Device [1462:7d76] Subsystem: Micro-Star International Co., Ltd. [MSI] Device [1462:7d76]</t>
-  </si>
-  <si>
-    <t>INNOGRIT Corporation NVMe SSD Controller IG5236 [1dbe:5236] Subsystem: Tongfang Hongkong Limited Family 19h PSP/CCP [1d05:160a]</t>
-  </si>
-  <si>
-    <t>MAXIO Technology (Hangzhou) Ltd. NVMe SSD Controller MAP1602 (DRAM-less) [1e4b:1602] Subsystem: Lenovo Device [17aa:3814] Subsystem: Lenovo Device [17aa:3805]</t>
-  </si>
-  <si>
-    <t>Xiaomi Device [1d72:2135] Subsystem: Toshiba Corporation Device [1179:ff1e]</t>
-  </si>
-  <si>
-    <t>QUANTA Computer Inc Device [152d:1260] Subsystem: QUANTA Computer Inc Device [152d:1260] Subsystem: QUANTA Computer Inc Device [152d:1260] Subsystem: QUANTA Computer Inc Device [152d:1260] Subsystem: QUANTA Computer Inc Device [152d:1260] Subsystem: QUANTA Computer Inc Device [152d:1260] Subsystem: Intel Corporation Dual Band Wi-Fi 5(802.11ac) Wireless-AC 9560 160MHz 2x2 [Jefferson Peak] [8086:0034]</t>
-  </si>
-  <si>
-    <t>QUANTA Computer Inc Device [152d:1260] Subsystem: QUANTA Computer Inc Device [152d:1260] Subsystem: QUANTA Computer Inc Device [152d:1260] Subsystem: QUANTA Computer Inc Device [152d:1260] Subsystem: QUANTA Computer Inc Device [152d:1260] Subsystem: QUANTA Computer Inc Device [152d:1260]</t>
-  </si>
-  <si>
-    <t>QUANTA Computer Inc Device [152d:1260] Subsystem: QUANTA Computer Inc Device [152d:1260] Subsystem: QUANTA Computer Inc Device [152d:1260] Subsystem: QUANTA Computer Inc Device [152d:1260] Subsystem: QUANTA Computer Inc Device [152d:1260]</t>
-  </si>
-  <si>
-    <t>CLEVO/KAPOK Computer Device [1558:8535] Subsystem: CLEVO/KAPOK Computer Device [1558:8535] Subsystem: CLEVO/KAPOK Computer Device [1558:8535] Subsystem: CLEVO/KAPOK Computer Device [1558:8535] Subsystem: CLEVO/KAPOK Computer Device [1558:8535] Subsystem: CLEVO/KAPOK Computer Device [1558:8535]</t>
-  </si>
-  <si>
-    <t>CLEVO/KAPOK Computer Device [1558:8535] Subsystem: CLEVO/KAPOK Computer Device [1558:8535] Subsystem: CLEVO/KAPOK Computer Device [1558:8535]</t>
-  </si>
-  <si>
-    <t>CLEVO/KAPOK Computer Device [1558:8535] Subsystem: CLEVO/KAPOK Computer Device [1558:8535] Subsystem: CLEVO/KAPOK Computer Device [1558:8535] Subsystem: CLEVO/KAPOK Computer Device [1558:8535] Subsystem: CLEVO/KAPOK Computer Device [1558:8535]</t>
-  </si>
-  <si>
-    <t>Intel Corporation Device [8086:2212] Subsystem: Intel Corporation Device [8086:7270]</t>
-  </si>
-  <si>
-    <t>Advanced Micro Devices, Inc. [AMD] Pink Sardine USB4/Thunderbolt NHI controller #2 [1022:1669] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135]</t>
-  </si>
-  <si>
-    <t>Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135]</t>
-  </si>
-  <si>
-    <t>Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135] Subsystem: Xiaomi Device [1d72:2135]</t>
-  </si>
-  <si>
-    <t>Intel Corporation Device [8086:7270] Subsystem: Intel Corporation Device [8086:7270] Subsystem: Intel Corporation Device [8086:7270] Subsystem: Intel Corporation Device [8086:7270] Subsystem: Intel Corporation Device [8086:7270] Subsystem: Intel Corporation Device [8086:7270] Subsystem: Intel Corporation Device [8086:7270]</t>
-  </si>
-  <si>
-    <t>Intel Corporation Device [8086:7270] Subsystem: Intel Corporation Device [8086:7270] Subsystem: Intel Corporation Device [8086:7270] Subsystem: Intel Corporation Device [8086:7270] Subsystem: Intel Corporation Device [8086:7270] Subsystem: Intel Corporation Device [8086:7270]</t>
-  </si>
-  <si>
-    <t>CLEVO/KAPOK Computer Device [1558:0156] Subsystem: CLEVO/KAPOK Computer Device [1558:0156] Subsystem: CLEVO/KAPOK Computer Device [1558:0156] Subsystem: CLEVO/KAPOK Computer Device [1558:0156] Subsystem: CLEVO/KAPOK Computer Device [1558:0156] Subsystem: CLEVO/KAPOK Computer Device [1558:0156]</t>
-  </si>
-  <si>
-    <t>CLEVO/KAPOK Computer Device [1558:0156] Subsystem: CLEVO/KAPOK Computer Device [1558:0156] Subsystem: CLEVO/KAPOK Computer Device [1558:0156] Subsystem: Intel Corporation Single Band Wi-Fi 6(802.11ax) AX101 80MHz 1x1 [Harrison Peak] [8086:0244] Subsystem: CLEVO/KAPOK Computer Device [1558:0156] Subsystem: CLEVO/KAPOK Computer Device [1558:0156] Subsystem: CLEVO/KAPOK Computer Device [1558:0156] Subsystem: CLEVO/KAPOK Computer Device [1558:0156]</t>
-  </si>
-  <si>
-    <t>CLEVO/KAPOK Computer Device [1558:0156] Subsystem: CLEVO/KAPOK Computer Device [1558:0156] Subsystem: CLEVO/KAPOK Computer Device [1558:0156] Subsystem: CLEVO/KAPOK Computer Device [1558:0156] Subsystem: CLEVO/KAPOK Computer Device [1558:0156]</t>
-  </si>
-  <si>
-    <t>Lenovo Device [17aa:384b] Subsystem: Lenovo Device [17aa:3d23] Subsystem: Lenovo Device [17aa:383d]</t>
-  </si>
-  <si>
-    <t>COMPAL Electronics Inc Device [14c0:0148] Subsystem: COMPAL Electronics Inc Device [14c0:0148] Subsystem: Lenovo Device [17aa:383c] Subsystem: Lenovo Device [17aa:383f] Subsystem: Lenovo Device [17aa:3846] Subsystem: COMPAL Electronics Inc Device [14c0:0148] Subsystem: Lenovo Device [17aa:383b] Subsystem: Lenovo Device [17aa:3829]</t>
-  </si>
-  <si>
-    <t>Lenovo Device [17aa:382d] Subsystem: Intel Corporation Wi-Fi 6E AX211 160MHz [8086:0094] Subsystem: Lenovo Device [17aa:3830] Subsystem: Lenovo Device [17aa:3832] Subsystem: Lenovo Device [17aa:3831] Subsystem: Lenovo Device [17aa:3818] Subsystem: Lenovo Device [17aa:3836] Subsystem: Lenovo Device [17aa:3837]</t>
-  </si>
-  <si>
-    <t>Lenovo Device [17aa:3801] Subsystem: Lenovo Device [17aa:3802] Subsystem: Lenovo Device [17aa:3827] Subsystem: Lenovo Device [17aa:381f]</t>
-  </si>
-  <si>
-    <t>Lenovo Device [17aa:231e] Subsystem: Lenovo Device [17aa:231e] Subsystem: Lenovo Device [17aa:231e]</t>
-  </si>
-  <si>
-    <t>Lenovo Device [17aa:231e] Subsystem: Lenovo Device [17aa:231e] Subsystem: Lenovo Device [17aa:231e] Subsystem: Lenovo Device [17aa:231e] Subsystem: Lenovo Device [17aa:231e] Subsystem: Lenovo Device [17aa:231e] Subsystem: Lenovo Device [17aa:231e] Subsystem: Lenovo Device [17aa:231e] Subsystem: Lenovo Device [17aa:231e] Subsystem: Lenovo Device [17aa:231e]</t>
-  </si>
-  <si>
-    <t>Lenovo Device [17aa:231e] Subsystem: Intel Corporation Device [8086:0090] Subsystem: Lenovo Device [17aa:231e] Subsystem: Lenovo Device [17aa:231e]</t>
-  </si>
-  <si>
-    <t>Lenovo Device [17aa:231e] Subsystem: Lenovo Device [17aa:231e] Subsystem: Lenovo Device [17aa:231e] Subsystem: Lenovo Device [17aa:231e]</t>
-  </si>
-  <si>
-    <t>Lenovo ThinkPad T480 [17aa:225e] Subsystem: Lenovo ThinkPad T480 [17aa:225d] Subsystem: Lenovo ThinkPad T480 [17aa:225d] Subsystem: Lenovo ThinkPad T480 [17aa:225d] Subsystem: Lenovo ThinkPad T480 [17aa:225d] Subsystem: Lenovo ThinkPad T480 [17aa:225d] Subsystem: Lenovo ThinkPad T480 [17aa:225d] Subsystem: Lenovo ThinkPad T480 [17aa:225d] Subsystem: Lenovo Device [17aa:225d] Subsystem: Lenovo Device [17aa:225d] Subsystem: Lenovo Device [17aa:225d] Subsystem: Lenovo ThinkPad T480 [17aa:225d] Subsystem: Lenovo ThinkPad T480 [17aa:225d] Subsystem: Lenovo ThinkPad T480 [17aa:225d] Subsystem: Lenovo ThinkPad T480 [17aa:225d]</t>
-  </si>
-  <si>
-    <t>ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882]</t>
-  </si>
-  <si>
-    <t>ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882]</t>
-  </si>
-  <si>
-    <t>ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882]</t>
-  </si>
-  <si>
-    <t>ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8694] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882]</t>
-  </si>
-  <si>
-    <t>ASUSTeK Computer Inc. Volume Management Device NVMe RAID Controller Intel Corporation [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: Rivet Networks Device [1a56:1671] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882]</t>
-  </si>
-  <si>
-    <t>ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:87fb] Subsystem: ASUSTeK Computer Inc. Device [1043:8882] Subsystem: ASUSTeK Computer Inc. Device [1043:8882]</t>
-  </si>
-  <si>
-    <t>Lenovo Device [17aa:2309] Subsystem: Lenovo Device [17aa:2309] Subsystem: Lenovo Device [17aa:2309] Subsystem: Intel Corporation Device [8086:0090] Subsystem: Lenovo Device [17aa:2309] Subsystem: Lenovo Device [17aa:2309] Subsystem: Lenovo Device [17aa:2309] Subsystem: Lenovo Device [17aa:2309]</t>
-  </si>
-  <si>
-    <t>Lenovo Device [17aa:2309] Subsystem: Lenovo Device [17aa:2309] Subsystem: Lenovo Device [17aa:2309] Subsystem: Lenovo Device [17aa:2309]</t>
-  </si>
-  <si>
-    <t>AzureWave Device [1a3b:5471] Subsystem: Biostar Microtech Int'l Corp Device [1565:170c]</t>
-  </si>
-  <si>
-    <t>Lenovo Device [17aa:3846] Subsystem: Advanced Micro Devices, Inc. [AMD] Device [1022:1453] Subsystem: Advanced Micro Devices, Inc. [AMD] Device [1022:1453]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Realtek Semiconductor Co., Ltd. Device [10ec:0123] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="思源黑体 Medium"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>涓</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Victor Mono Medium"/>
-        <family val="3"/>
-      </rPr>
-      <t>€</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="思源黑体 Medium"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>涓</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Victor Mono Medium"/>
-        <family val="3"/>
-      </rPr>
-      <t></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="思源黑体 Medium"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>彲鑳界殑璁惧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Victor Mono Medium"/>
-        <family val="3"/>
-      </rPr>
-      <t></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="思源黑体 Medium"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>鍚嶇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Victor Mono Medium"/>
-        <family val="3"/>
-      </rPr>
-      <t>О:RTL8126 PCI Express 5G Gigabit Ethernet Controller</t>
-    </r>
-  </si>
-  <si>
-    <t>[Intel]</t>
-  </si>
-  <si>
-    <t>[Intel][8086:7270]</t>
-  </si>
-  <si>
-    <t>[Intel][8086:7270] Subsystem: [Intel][8086:7270] Subsystem: [Intel][8086:7270] Subsystem: [Intel][8086:7270] Subsystem: [Intel][8086:7270] Subsystem: [Intel][8086:7270] Subsystem: [Intel][8086:7270]</t>
-  </si>
-  <si>
-    <t>[Intel][8086:7270] Subsystem: [Intel][8086:7270] Subsystem: [Intel][8086:7270] Subsystem: [Intel][8086:7270] Subsystem: [Intel][8086:7270] Subsystem: [Intel][8086:7270]</t>
-  </si>
-  <si>
-    <t>[Intel][8086:00e4]</t>
-  </si>
-  <si>
-    <t>Lenovo Device [17aa:231e] Subsystem: [Intel][8086:0090] Subsystem: Lenovo Device [17aa:231e] Subsystem: Lenovo Device [17aa:231e]</t>
-  </si>
-  <si>
-    <t>[Intel][8086:4fa4]</t>
-  </si>
-  <si>
-    <t>[Intel][8086:0000]</t>
-  </si>
-  <si>
-    <t>Lenovo Device [17aa:2309] Subsystem: Lenovo Device [17aa:2309] Subsystem: Lenovo Device [17aa:2309] Subsystem: [Intel][8086:0090] Subsystem: Lenovo Device [17aa:2309] Subsystem: Lenovo Device [17aa:2309] Subsystem: Lenovo Device [17aa:2309] Subsystem: Lenovo Device [17aa:2309]</t>
-  </si>
-  <si>
-    <t>[Intel][8086:390f]</t>
-  </si>
-  <si>
-    <t>[Intel]0000</t>
-  </si>
-  <si>
-    <t>[AMD]</t>
-  </si>
-  <si>
-    <t>[AMD][1022:14d8]</t>
-  </si>
-  <si>
-    <t>[AMD][1022:14d9]</t>
-  </si>
-  <si>
-    <t>[AMD][1022:1453]</t>
-  </si>
-  <si>
-    <t>[AMD][1022:14dd]</t>
-  </si>
-  <si>
-    <t>[AMD][1022:14dd] Subsystem: Biostar Microtech Int'l Corp Device [1565:370d]</t>
-  </si>
-  <si>
-    <t>[AMD][1022:14e8]</t>
-  </si>
-  <si>
-    <t>[AMD][1022:14e9]</t>
-  </si>
-  <si>
-    <t>[AMD][1022:14eb]</t>
-  </si>
-  <si>
-    <t>[AMD][1022:14e8] lspci: Unable to load libkmod resources: error -2</t>
-  </si>
-  <si>
-    <t>[AMD][1022:15b9]</t>
-  </si>
-  <si>
-    <t>[AMD][1022:15ba]</t>
-  </si>
-  <si>
-    <t>[AMD][1022:14ec]</t>
-  </si>
-  <si>
-    <t>[AMD][1022:15c0]</t>
-  </si>
-  <si>
-    <t>[AMD][1022:15c1]</t>
-  </si>
-  <si>
-    <t>[AMD/ATI]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8086:4e28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8086:51be</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DmaSecurity AllowedBus Extension</t>
+  </si>
+  <si>
+    <t>https://driverscollection.com/Search/PCI%5CVEN_8086%26DEV_51BE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2364,7 +2274,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2392,6 +2302,22 @@
       <color theme="1"/>
       <name val="Victor Mono Medium"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF404040"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2454,12 +2380,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2496,9 +2425,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -2859,21 +2795,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603CB7AB-9951-4D9B-838B-0D75602626D2}">
-  <dimension ref="A1:F245"/>
+  <dimension ref="A1:G245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G111" sqref="G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="48" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.77734375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="63.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2884,7 +2821,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>9</v>
@@ -2892,9 +2829,7 @@
       <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>716</v>
-      </c>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -2912,9 +2847,7 @@
       <c r="E2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -2932,9 +2865,7 @@
       <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2944,7 +2875,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>608</v>
@@ -2952,9 +2883,7 @@
       <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -2964,7 +2893,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>741</v>
+        <v>715</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>197</v>
@@ -2972,9 +2901,7 @@
       <c r="E5" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>626</v>
-      </c>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -2984,7 +2911,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>103</v>
@@ -2992,9 +2919,7 @@
       <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>727</v>
-      </c>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -3004,7 +2929,7 @@
         <v>106</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>107</v>
@@ -3012,9 +2937,7 @@
       <c r="E7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>728</v>
-      </c>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -3024,7 +2947,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>109</v>
@@ -3032,9 +2955,7 @@
       <c r="E8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -3044,7 +2965,7 @@
         <v>47</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>110</v>
@@ -3052,9 +2973,7 @@
       <c r="E9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>729</v>
-      </c>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -3064,7 +2983,7 @@
         <v>47</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>112</v>
@@ -3072,9 +2991,7 @@
       <c r="E10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>730</v>
-      </c>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -3084,7 +3001,7 @@
         <v>47</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>112</v>
@@ -3092,9 +3009,7 @@
       <c r="E11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>731</v>
-      </c>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -3104,7 +3019,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>118</v>
@@ -3112,9 +3027,7 @@
       <c r="E12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -3124,7 +3037,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>119</v>
@@ -3132,9 +3045,7 @@
       <c r="E13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -3144,7 +3055,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>120</v>
@@ -3152,9 +3063,7 @@
       <c r="E14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -3164,7 +3073,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>121</v>
@@ -3172,9 +3081,7 @@
       <c r="E15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -3184,7 +3091,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>122</v>
@@ -3192,9 +3099,7 @@
       <c r="E16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -3204,7 +3109,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>123</v>
@@ -3212,9 +3117,7 @@
       <c r="E17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
@@ -3224,7 +3127,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>124</v>
@@ -3232,9 +3135,7 @@
       <c r="E18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -3244,7 +3145,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>125</v>
@@ -3252,9 +3153,7 @@
       <c r="E19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
@@ -3264,7 +3163,7 @@
         <v>32</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>167</v>
@@ -3272,9 +3171,7 @@
       <c r="E20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>114</v>
-      </c>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -3284,7 +3181,7 @@
         <v>32</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>168</v>
@@ -3292,9 +3189,7 @@
       <c r="E21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>114</v>
-      </c>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -3304,7 +3199,7 @@
         <v>32</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>172</v>
@@ -3312,9 +3207,7 @@
       <c r="E22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>114</v>
-      </c>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
@@ -3324,7 +3217,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>103</v>
@@ -3332,9 +3225,7 @@
       <c r="E23" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>86</v>
-      </c>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -3344,7 +3235,7 @@
         <v>106</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>107</v>
@@ -3352,9 +3243,7 @@
       <c r="E24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>87</v>
-      </c>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
@@ -3364,7 +3253,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>167</v>
@@ -3372,9 +3261,7 @@
       <c r="E25" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>173</v>
-      </c>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -3384,7 +3271,7 @@
         <v>32</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>168</v>
@@ -3392,9 +3279,7 @@
       <c r="E26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>79</v>
-      </c>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
@@ -3404,7 +3289,7 @@
         <v>32</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>172</v>
@@ -3412,9 +3297,7 @@
       <c r="E27" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>174</v>
-      </c>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -3424,7 +3307,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>103</v>
@@ -3432,9 +3315,7 @@
       <c r="E28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
@@ -3444,7 +3325,7 @@
         <v>106</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>107</v>
@@ -3452,9 +3333,7 @@
       <c r="E29" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="11" t="s">
-        <v>175</v>
-      </c>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -3464,7 +3343,7 @@
         <v>47</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>110</v>
@@ -3472,9 +3351,7 @@
       <c r="E30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
@@ -3484,7 +3361,7 @@
         <v>47</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>112</v>
@@ -3492,9 +3369,7 @@
       <c r="E31" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="11" t="s">
-        <v>176</v>
-      </c>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -3504,7 +3379,7 @@
         <v>47</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>112</v>
@@ -3512,9 +3387,7 @@
       <c r="E32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>669</v>
-      </c>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -3524,7 +3397,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>167</v>
@@ -3532,9 +3405,7 @@
       <c r="E33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
@@ -3544,7 +3415,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>168</v>
@@ -3552,9 +3423,7 @@
       <c r="E34" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>175</v>
-      </c>
+      <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
@@ -3564,7 +3433,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>172</v>
@@ -3572,9 +3441,7 @@
       <c r="E35" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>175</v>
-      </c>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
@@ -3584,7 +3451,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>200</v>
@@ -3592,9 +3459,7 @@
       <c r="E36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>732</v>
-      </c>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
@@ -3604,7 +3469,7 @@
         <v>106</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>202</v>
@@ -3612,9 +3477,7 @@
       <c r="E37" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="11" t="s">
-        <v>733</v>
-      </c>
+      <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -3624,7 +3487,7 @@
         <v>7</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>204</v>
@@ -3632,9 +3495,7 @@
       <c r="E38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
@@ -3644,7 +3505,7 @@
         <v>47</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>205</v>
@@ -3652,9 +3513,7 @@
       <c r="E39" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="11" t="s">
-        <v>729</v>
-      </c>
+      <c r="F39" s="11"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
@@ -3664,7 +3523,7 @@
         <v>47</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>206</v>
@@ -3672,9 +3531,7 @@
       <c r="E40" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>729</v>
-      </c>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
@@ -3684,7 +3541,7 @@
         <v>47</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>209</v>
@@ -3692,9 +3549,7 @@
       <c r="E41" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>734</v>
-      </c>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
@@ -3704,7 +3559,7 @@
         <v>7</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>212</v>
@@ -3712,9 +3567,7 @@
       <c r="E42" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
@@ -3724,7 +3577,7 @@
         <v>7</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>213</v>
@@ -3732,9 +3585,7 @@
       <c r="E43" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F43" s="11"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
@@ -3744,7 +3595,7 @@
         <v>7</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>214</v>
@@ -3752,9 +3603,7 @@
       <c r="E44" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
@@ -3764,7 +3613,7 @@
         <v>7</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>215</v>
@@ -3772,9 +3621,7 @@
       <c r="E45" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F45" s="11"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -3784,7 +3631,7 @@
         <v>7</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>216</v>
@@ -3792,9 +3639,7 @@
       <c r="E46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F46" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F46" s="7"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
@@ -3804,7 +3649,7 @@
         <v>7</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>217</v>
@@ -3812,9 +3657,7 @@
       <c r="E47" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F47" s="11"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
@@ -3824,7 +3667,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>218</v>
@@ -3832,9 +3675,7 @@
       <c r="E48" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F48" s="7"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
@@ -3844,7 +3685,7 @@
         <v>7</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>219</v>
@@ -3852,9 +3693,7 @@
       <c r="E49" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F49" s="11"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
@@ -3864,7 +3703,7 @@
         <v>7</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>200</v>
@@ -3872,9 +3711,7 @@
       <c r="E50" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="7" t="s">
-        <v>220</v>
-      </c>
+      <c r="F50" s="7"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
@@ -3884,7 +3721,7 @@
         <v>106</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>202</v>
@@ -3892,9 +3729,7 @@
       <c r="E51" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F51" s="11" t="s">
-        <v>220</v>
-      </c>
+      <c r="F51" s="11"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
@@ -3904,7 +3739,7 @@
         <v>47</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>206</v>
@@ -3912,9 +3747,7 @@
       <c r="E52" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="7" t="s">
-        <v>220</v>
-      </c>
+      <c r="F52" s="7"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
@@ -3924,7 +3757,7 @@
         <v>47</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>209</v>
@@ -3932,9 +3765,7 @@
       <c r="E53" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F53" s="7" t="s">
-        <v>220</v>
-      </c>
+      <c r="F53" s="7"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
@@ -3944,7 +3775,7 @@
         <v>47</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>209</v>
@@ -3952,9 +3783,7 @@
       <c r="E54" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="11" t="s">
-        <v>670</v>
-      </c>
+      <c r="F54" s="11"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
@@ -3964,7 +3793,7 @@
         <v>32</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>234</v>
@@ -3972,9 +3801,7 @@
       <c r="E55" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F55" s="7" t="s">
-        <v>220</v>
-      </c>
+      <c r="F55" s="7"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
@@ -3984,7 +3811,7 @@
         <v>32</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>235</v>
@@ -3992,9 +3819,7 @@
       <c r="E56" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F56" s="11" t="s">
-        <v>220</v>
-      </c>
+      <c r="F56" s="11"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
@@ -4004,7 +3829,7 @@
         <v>161</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>239</v>
@@ -4012,9 +3837,7 @@
       <c r="E57" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F57" s="7" t="s">
-        <v>220</v>
-      </c>
+      <c r="F57" s="7"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
@@ -4024,7 +3847,7 @@
         <v>32</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>242</v>
@@ -4032,9 +3855,7 @@
       <c r="E58" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="7" t="s">
-        <v>220</v>
-      </c>
+      <c r="F58" s="7"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
@@ -4044,7 +3865,7 @@
         <v>32</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>243</v>
@@ -4052,9 +3873,7 @@
       <c r="E59" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F59" s="11" t="s">
-        <v>220</v>
-      </c>
+      <c r="F59" s="11"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
@@ -4064,7 +3883,7 @@
         <v>7</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>200</v>
@@ -4072,9 +3891,7 @@
       <c r="E60" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F60" s="11" t="s">
-        <v>735</v>
-      </c>
+      <c r="F60" s="11"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
@@ -4084,7 +3901,7 @@
         <v>32</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>234</v>
@@ -4092,9 +3909,7 @@
       <c r="E61" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="7" t="s">
-        <v>736</v>
-      </c>
+      <c r="F61" s="7"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
@@ -4104,7 +3919,7 @@
         <v>32</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>235</v>
@@ -4112,9 +3927,7 @@
       <c r="E62" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="11" t="s">
-        <v>737</v>
-      </c>
+      <c r="F62" s="11"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
@@ -4124,7 +3937,7 @@
         <v>161</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>239</v>
@@ -4132,9 +3945,7 @@
       <c r="E63" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F63" s="7" t="s">
-        <v>738</v>
-      </c>
+      <c r="F63" s="7"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
@@ -4144,7 +3955,7 @@
         <v>32</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>242</v>
@@ -4152,9 +3963,7 @@
       <c r="E64" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F64" s="7" t="s">
-        <v>739</v>
-      </c>
+      <c r="F64" s="7"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
@@ -4164,7 +3973,7 @@
         <v>32</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>243</v>
@@ -4172,9 +3981,7 @@
       <c r="E65" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F65" s="11" t="s">
-        <v>740</v>
-      </c>
+      <c r="F65" s="11"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
@@ -4184,7 +3991,7 @@
         <v>10</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>553</v>
@@ -4192,9 +3999,7 @@
       <c r="E66" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F66" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F66" s="7"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
@@ -4204,7 +4009,7 @@
         <v>10</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>554</v>
@@ -4212,9 +4017,7 @@
       <c r="E67" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F67" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F67" s="11"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
@@ -4224,7 +4027,7 @@
         <v>10</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>555</v>
@@ -4232,9 +4035,7 @@
       <c r="E68" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F68" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F68" s="7"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
@@ -4244,7 +4045,7 @@
         <v>10</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>556</v>
@@ -4252,9 +4053,7 @@
       <c r="E69" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F69" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F69" s="11"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
@@ -4264,7 +4063,7 @@
         <v>10</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>557</v>
@@ -4272,9 +4071,7 @@
       <c r="E70" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F70" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F70" s="7"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
@@ -4284,7 +4081,7 @@
         <v>10</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>558</v>
@@ -4292,9 +4089,7 @@
       <c r="E71" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F71" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F71" s="11"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
@@ -4304,7 +4099,7 @@
         <v>10</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>559</v>
@@ -4312,9 +4107,7 @@
       <c r="E72" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F72" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F72" s="7"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
@@ -4324,7 +4117,7 @@
         <v>10</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>560</v>
@@ -4332,9 +4125,7 @@
       <c r="E73" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F73" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F73" s="11"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
@@ -4344,7 +4135,7 @@
         <v>10</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>561</v>
@@ -4352,9 +4143,7 @@
       <c r="E74" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F74" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F74" s="7"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
@@ -4364,7 +4153,7 @@
         <v>10</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>562</v>
@@ -4372,9 +4161,7 @@
       <c r="E75" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F75" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F75" s="11"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
@@ -4384,7 +4171,7 @@
         <v>10</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>563</v>
@@ -4392,9 +4179,7 @@
       <c r="E76" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F76" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F76" s="7"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
@@ -4404,7 +4189,7 @@
         <v>10</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>564</v>
@@ -4412,9 +4197,7 @@
       <c r="E77" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F77" s="11"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
@@ -4424,7 +4207,7 @@
         <v>10</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>565</v>
@@ -4432,9 +4215,7 @@
       <c r="E78" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F78" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F78" s="7"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
@@ -4444,7 +4225,7 @@
         <v>10</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>566</v>
@@ -4452,9 +4233,7 @@
       <c r="E79" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F79" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F79" s="11"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
@@ -4464,7 +4243,7 @@
         <v>10</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>567</v>
@@ -4472,9 +4251,7 @@
       <c r="E80" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F80" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F80" s="7"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
@@ -4484,7 +4261,7 @@
         <v>10</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>568</v>
@@ -4492,9 +4269,7 @@
       <c r="E81" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F81" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F81" s="11"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
@@ -4504,7 +4279,7 @@
         <v>161</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>569</v>
@@ -4512,9 +4287,7 @@
       <c r="E82" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F82" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F82" s="7"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
@@ -4524,7 +4297,7 @@
         <v>10</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>570</v>
@@ -4532,9 +4305,7 @@
       <c r="E83" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F83" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F83" s="11"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
@@ -4544,7 +4315,7 @@
         <v>10</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>571</v>
@@ -4552,9 +4323,7 @@
       <c r="E84" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F84" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F84" s="7"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
@@ -4564,7 +4333,7 @@
         <v>47</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>605</v>
@@ -4572,9 +4341,7 @@
       <c r="E85" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F85" s="7" t="s">
-        <v>606</v>
-      </c>
+      <c r="F85" s="7"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
@@ -4584,7 +4351,7 @@
         <v>32</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>172</v>
@@ -4592,9 +4359,7 @@
       <c r="E86" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F86" s="11" t="s">
-        <v>626</v>
-      </c>
+      <c r="F86" s="11"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
@@ -4604,7 +4369,7 @@
         <v>7</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>103</v>
@@ -4612,9 +4377,7 @@
       <c r="E87" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F87" s="11" t="s">
-        <v>626</v>
-      </c>
+      <c r="F87" s="11"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
@@ -4624,7 +4387,7 @@
         <v>106</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>107</v>
@@ -4632,9 +4395,7 @@
       <c r="E88" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F88" s="7" t="s">
-        <v>626</v>
-      </c>
+      <c r="F88" s="7"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
@@ -4644,7 +4405,7 @@
         <v>47</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>110</v>
@@ -4652,9 +4413,7 @@
       <c r="E89" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F89" s="11" t="s">
-        <v>626</v>
-      </c>
+      <c r="F89" s="11"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
@@ -4664,7 +4423,7 @@
         <v>47</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>110</v>
@@ -4672,9 +4431,7 @@
       <c r="E90" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F90" s="7" t="s">
-        <v>675</v>
-      </c>
+      <c r="F90" s="7"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
@@ -4692,9 +4449,7 @@
       <c r="E91" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F91" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="F91" s="7"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
@@ -4712,9 +4467,7 @@
       <c r="E92" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="11" t="s">
-        <v>597</v>
-      </c>
+      <c r="F92" s="11"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
@@ -4732,9 +4485,7 @@
       <c r="E93" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F93" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F93" s="11"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
@@ -4752,9 +4503,7 @@
       <c r="E94" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F94" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F94" s="7"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
@@ -4772,9 +4521,7 @@
       <c r="E95" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F95" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F95" s="11"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
@@ -4792,11 +4539,9 @@
       <c r="E96" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F96" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F96" s="7"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>46</v>
       </c>
@@ -4812,11 +4557,9 @@
       <c r="E97" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F97" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F97" s="7"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>28</v>
       </c>
@@ -4824,7 +4567,7 @@
         <v>29</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>30</v>
@@ -4832,11 +4575,9 @@
       <c r="E98" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F98" s="7" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F98" s="7"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>46</v>
       </c>
@@ -4844,7 +4585,7 @@
         <v>47</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>48</v>
@@ -4852,11 +4593,9 @@
       <c r="E99" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="11" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F99" s="11"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>46</v>
       </c>
@@ -4864,7 +4603,7 @@
         <v>47</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>49</v>
@@ -4872,11 +4611,9 @@
       <c r="E100" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F100" s="7" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F100" s="7"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>6</v>
       </c>
@@ -4884,7 +4621,7 @@
         <v>7</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>71</v>
@@ -4892,11 +4629,9 @@
       <c r="E101" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F101" s="11" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="11"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>46</v>
       </c>
@@ -4904,7 +4639,7 @@
         <v>47</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>74</v>
@@ -4912,11 +4647,9 @@
       <c r="E102" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F102" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F102" s="7"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>46</v>
       </c>
@@ -4924,7 +4657,7 @@
         <v>47</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>77</v>
@@ -4932,11 +4665,9 @@
       <c r="E103" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F103" s="11" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F103" s="11"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>33</v>
       </c>
@@ -4944,7 +4675,7 @@
         <v>34</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>80</v>
@@ -4952,11 +4683,9 @@
       <c r="E104" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F104" s="7" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F104" s="7"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>46</v>
       </c>
@@ -4964,7 +4693,7 @@
         <v>47</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>83</v>
@@ -4972,11 +4701,9 @@
       <c r="E105" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F105" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="11"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>46</v>
       </c>
@@ -4984,7 +4711,7 @@
         <v>47</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>84</v>
@@ -4992,11 +4719,9 @@
       <c r="E106" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F106" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F106" s="7"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>50</v>
       </c>
@@ -5004,7 +4729,7 @@
         <v>51</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>85</v>
@@ -5012,11 +4737,9 @@
       <c r="E107" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F107" s="11" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F107" s="11"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>54</v>
       </c>
@@ -5024,19 +4747,22 @@
         <v>55</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>88</v>
+        <v>718</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F108" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F108" s="13" t="s">
+        <v>720</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>46</v>
       </c>
@@ -5044,19 +4770,22 @@
         <v>47</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>328</v>
+        <v>730</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F109" s="7" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F109" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>6</v>
       </c>
@@ -5064,7 +4793,7 @@
         <v>7</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>376</v>
@@ -5072,11 +4801,9 @@
       <c r="E110" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F110" s="7" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F110" s="7"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>46</v>
       </c>
@@ -5084,7 +4811,7 @@
         <v>47</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>377</v>
@@ -5092,11 +4819,9 @@
       <c r="E111" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F111" s="11" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F111" s="11"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>46</v>
       </c>
@@ -5104,7 +4829,7 @@
         <v>47</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>378</v>
@@ -5112,9 +4837,7 @@
       <c r="E112" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F112" s="7" t="s">
-        <v>716</v>
-      </c>
+      <c r="F112" s="7"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
@@ -5124,7 +4847,7 @@
         <v>47</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>379</v>
@@ -5132,9 +4855,7 @@
       <c r="E113" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F113" s="11" t="s">
-        <v>716</v>
-      </c>
+      <c r="F113" s="11"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
@@ -5144,7 +4865,7 @@
         <v>47</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>380</v>
@@ -5152,9 +4873,7 @@
       <c r="E114" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F114" s="7" t="s">
-        <v>716</v>
-      </c>
+      <c r="F114" s="7"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
@@ -5164,7 +4883,7 @@
         <v>47</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>381</v>
@@ -5172,9 +4891,7 @@
       <c r="E115" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F115" s="11" t="s">
-        <v>718</v>
-      </c>
+      <c r="F115" s="11"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
@@ -5184,7 +4901,7 @@
         <v>7</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>382</v>
@@ -5192,9 +4909,7 @@
       <c r="E116" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="F116" s="7" t="s">
-        <v>383</v>
-      </c>
+      <c r="F116" s="7"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
@@ -5204,7 +4919,7 @@
         <v>51</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>385</v>
@@ -5212,9 +4927,7 @@
       <c r="E117" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="F117" s="7" t="s">
-        <v>383</v>
-      </c>
+      <c r="F117" s="7"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
@@ -5224,7 +4937,7 @@
         <v>7</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>390</v>
@@ -5232,9 +4945,7 @@
       <c r="E118" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="F118" s="11" t="s">
-        <v>692</v>
-      </c>
+      <c r="F118" s="11"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
@@ -5244,7 +4955,7 @@
         <v>47</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>328</v>
@@ -5252,9 +4963,7 @@
       <c r="E119" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F119" s="11" t="s">
-        <v>694</v>
-      </c>
+      <c r="F119" s="11"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
@@ -5264,17 +4973,15 @@
         <v>7</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>400</v>
+        <v>729</v>
       </c>
       <c r="E120" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F120" s="11" t="s">
-        <v>716</v>
-      </c>
+      <c r="F120" s="11"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
@@ -5284,7 +4991,7 @@
         <v>7</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D121" s="9" t="s">
         <v>402</v>
@@ -5292,9 +4999,7 @@
       <c r="E121" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F121" s="11" t="s">
-        <v>403</v>
-      </c>
+      <c r="F121" s="11"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
@@ -5304,7 +5009,7 @@
         <v>19</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>404</v>
@@ -5312,9 +5017,7 @@
       <c r="E122" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F122" s="7" t="s">
-        <v>403</v>
-      </c>
+      <c r="F122" s="7"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
@@ -5324,7 +5027,7 @@
         <v>19</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D123" s="9" t="s">
         <v>405</v>
@@ -5332,9 +5035,7 @@
       <c r="E123" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F123" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F123" s="11"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
@@ -5344,7 +5045,7 @@
         <v>40</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>406</v>
@@ -5352,9 +5053,7 @@
       <c r="E124" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F124" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F124" s="7"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
@@ -5364,7 +5063,7 @@
         <v>34</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D125" s="9" t="s">
         <v>407</v>
@@ -5372,9 +5071,7 @@
       <c r="E125" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F125" s="11" t="s">
-        <v>403</v>
-      </c>
+      <c r="F125" s="11"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
@@ -5384,7 +5081,7 @@
         <v>82</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>408</v>
@@ -5392,9 +5089,7 @@
       <c r="E126" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F126" s="7" t="s">
-        <v>719</v>
-      </c>
+      <c r="F126" s="7"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
@@ -5404,7 +5099,7 @@
         <v>40</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D127" s="9" t="s">
         <v>410</v>
@@ -5412,9 +5107,7 @@
       <c r="E127" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F127" s="11" t="s">
-        <v>403</v>
-      </c>
+      <c r="F127" s="11"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
@@ -5424,7 +5117,7 @@
         <v>36</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>411</v>
@@ -5432,9 +5125,7 @@
       <c r="E128" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F128" s="7" t="s">
-        <v>403</v>
-      </c>
+      <c r="F128" s="7"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
@@ -5444,7 +5135,7 @@
         <v>36</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D129" s="9" t="s">
         <v>412</v>
@@ -5452,9 +5143,7 @@
       <c r="E129" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F129" s="11" t="s">
-        <v>403</v>
-      </c>
+      <c r="F129" s="11"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
@@ -5464,7 +5153,7 @@
         <v>51</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>413</v>
@@ -5472,9 +5161,7 @@
       <c r="E130" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F130" s="7" t="s">
-        <v>403</v>
-      </c>
+      <c r="F130" s="7"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
@@ -5484,7 +5171,7 @@
         <v>7</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D131" s="9" t="s">
         <v>414</v>
@@ -5492,9 +5179,7 @@
       <c r="E131" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F131" s="11" t="s">
-        <v>699</v>
-      </c>
+      <c r="F131" s="11"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
@@ -5504,7 +5189,7 @@
         <v>47</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>74</v>
@@ -5512,9 +5197,7 @@
       <c r="E132" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F132" s="7" t="s">
-        <v>415</v>
-      </c>
+      <c r="F132" s="7"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
@@ -5524,7 +5207,7 @@
         <v>47</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D133" s="9" t="s">
         <v>416</v>
@@ -5532,9 +5215,7 @@
       <c r="E133" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F133" s="11" t="s">
-        <v>700</v>
-      </c>
+      <c r="F133" s="11"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
@@ -5544,7 +5225,7 @@
         <v>34</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>80</v>
@@ -5552,9 +5233,7 @@
       <c r="E134" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F134" s="7" t="s">
-        <v>720</v>
-      </c>
+      <c r="F134" s="7"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
@@ -5564,7 +5243,7 @@
         <v>47</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D135" s="9" t="s">
         <v>83</v>
@@ -5572,9 +5251,7 @@
       <c r="E135" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F135" s="11" t="s">
-        <v>415</v>
-      </c>
+      <c r="F135" s="11"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
@@ -5584,7 +5261,7 @@
         <v>51</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>85</v>
@@ -5592,9 +5269,7 @@
       <c r="E136" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F136" s="7" t="s">
-        <v>702</v>
-      </c>
+      <c r="F136" s="7"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
@@ -5604,7 +5279,7 @@
         <v>7</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>419</v>
@@ -5612,9 +5287,7 @@
       <c r="E137" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="F137" s="7" t="s">
-        <v>420</v>
-      </c>
+      <c r="F137" s="7"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
@@ -5624,7 +5297,7 @@
         <v>40</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D138" s="9" t="s">
         <v>425</v>
@@ -5632,9 +5305,7 @@
       <c r="E138" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F138" s="11" t="s">
-        <v>420</v>
-      </c>
+      <c r="F138" s="11"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
@@ -5644,7 +5315,7 @@
         <v>36</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>426</v>
@@ -5652,9 +5323,7 @@
       <c r="E139" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F139" s="7" t="s">
-        <v>682</v>
-      </c>
+      <c r="F139" s="7"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
@@ -5664,7 +5333,7 @@
         <v>7</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>430</v>
@@ -5672,9 +5341,7 @@
       <c r="E140" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F140" s="7" t="s">
-        <v>704</v>
-      </c>
+      <c r="F140" s="7"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
@@ -5684,7 +5351,7 @@
         <v>47</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>437</v>
@@ -5692,9 +5359,7 @@
       <c r="E141" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="F141" s="7" t="s">
-        <v>706</v>
-      </c>
+      <c r="F141" s="7"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
@@ -5704,7 +5369,7 @@
         <v>47</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D142" s="9" t="s">
         <v>438</v>
@@ -5712,9 +5377,7 @@
       <c r="E142" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="F142" s="11" t="s">
-        <v>707</v>
-      </c>
+      <c r="F142" s="11"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
@@ -5724,7 +5387,7 @@
         <v>47</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>439</v>
@@ -5732,9 +5395,7 @@
       <c r="E143" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F143" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F143" s="7"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
@@ -5744,7 +5405,7 @@
         <v>47</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D144" s="9" t="s">
         <v>440</v>
@@ -5752,9 +5413,7 @@
       <c r="E144" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F144" s="11" t="s">
-        <v>721</v>
-      </c>
+      <c r="F144" s="11"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
@@ -5764,7 +5423,7 @@
         <v>47</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>440</v>
@@ -5772,9 +5431,7 @@
       <c r="E145" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F145" s="7" t="s">
-        <v>722</v>
-      </c>
+      <c r="F145" s="7"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
@@ -5784,7 +5441,7 @@
         <v>7</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D146" s="9" t="s">
         <v>468</v>
@@ -5792,9 +5449,7 @@
       <c r="E146" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F146" s="11" t="s">
-        <v>431</v>
-      </c>
+      <c r="F146" s="11"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
@@ -5804,7 +5459,7 @@
         <v>47</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>432</v>
@@ -5812,9 +5467,7 @@
       <c r="E147" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F147" s="7" t="s">
-        <v>431</v>
-      </c>
+      <c r="F147" s="7"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
@@ -5824,7 +5477,7 @@
         <v>47</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>469</v>
@@ -5832,9 +5485,7 @@
       <c r="E148" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="F148" s="7" t="s">
-        <v>706</v>
-      </c>
+      <c r="F148" s="7"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
@@ -5844,7 +5495,7 @@
         <v>47</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D149" s="9" t="s">
         <v>438</v>
@@ -5852,9 +5503,7 @@
       <c r="E149" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="F149" s="11" t="s">
-        <v>709</v>
-      </c>
+      <c r="F149" s="11"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
@@ -5864,7 +5513,7 @@
         <v>7</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D150" s="9" t="s">
         <v>485</v>
@@ -5872,9 +5521,7 @@
       <c r="E150" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F150" s="11" t="s">
-        <v>486</v>
-      </c>
+      <c r="F150" s="11"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
@@ -5884,7 +5531,7 @@
         <v>47</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>432</v>
@@ -5892,9 +5539,7 @@
       <c r="E151" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F151" s="7" t="s">
-        <v>673</v>
-      </c>
+      <c r="F151" s="7"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
@@ -5904,7 +5549,7 @@
         <v>47</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D152" s="9" t="s">
         <v>488</v>
@@ -5912,9 +5557,7 @@
       <c r="E152" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F152" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F152" s="11"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
@@ -5924,7 +5567,7 @@
         <v>47</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>489</v>
@@ -5932,9 +5575,7 @@
       <c r="E153" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F153" s="7" t="s">
-        <v>486</v>
-      </c>
+      <c r="F153" s="7"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
@@ -5944,7 +5585,7 @@
         <v>32</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D154" s="9" t="s">
         <v>490</v>
@@ -5952,9 +5593,7 @@
       <c r="E154" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F154" s="11" t="s">
-        <v>486</v>
-      </c>
+      <c r="F154" s="11"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
@@ -5964,7 +5603,7 @@
         <v>32</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>491</v>
@@ -5972,9 +5611,7 @@
       <c r="E155" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F155" s="7" t="s">
-        <v>486</v>
-      </c>
+      <c r="F155" s="7"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
@@ -5984,7 +5621,7 @@
         <v>32</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D156" s="9" t="s">
         <v>492</v>
@@ -5992,9 +5629,7 @@
       <c r="E156" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F156" s="11" t="s">
-        <v>723</v>
-      </c>
+      <c r="F156" s="11"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
@@ -6004,7 +5639,7 @@
         <v>47</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>493</v>
@@ -6012,9 +5647,7 @@
       <c r="E157" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F157" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F157" s="7"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
@@ -6024,7 +5657,7 @@
         <v>47</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D158" s="9" t="s">
         <v>494</v>
@@ -6032,9 +5665,7 @@
       <c r="E158" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F158" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F158" s="11"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
@@ -6044,7 +5675,7 @@
         <v>47</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>327</v>
@@ -6052,9 +5683,7 @@
       <c r="E159" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F159" s="7" t="s">
-        <v>711</v>
-      </c>
+      <c r="F159" s="7"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
@@ -6064,7 +5693,7 @@
         <v>47</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>83</v>
@@ -6072,9 +5701,7 @@
       <c r="E160" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F160" s="7" t="s">
-        <v>588</v>
-      </c>
+      <c r="F160" s="7"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
@@ -6084,7 +5711,7 @@
         <v>51</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D161" s="9" t="s">
         <v>85</v>
@@ -6092,9 +5719,7 @@
       <c r="E161" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F161" s="11" t="s">
-        <v>589</v>
-      </c>
+      <c r="F161" s="11"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
@@ -6104,7 +5729,7 @@
         <v>34</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D162" s="5" t="s">
         <v>80</v>
@@ -6112,9 +5737,7 @@
       <c r="E162" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F162" s="7" t="s">
-        <v>716</v>
-      </c>
+      <c r="F162" s="7"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
@@ -6124,7 +5747,7 @@
         <v>7</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D163" s="9" t="s">
         <v>414</v>
@@ -6132,9 +5755,7 @@
       <c r="E163" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F163" s="11" t="s">
-        <v>590</v>
-      </c>
+      <c r="F163" s="11"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
@@ -6144,7 +5765,7 @@
         <v>47</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>591</v>
@@ -6152,9 +5773,7 @@
       <c r="E164" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F164" s="7" t="s">
-        <v>592</v>
-      </c>
+      <c r="F164" s="7"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
@@ -6164,7 +5783,7 @@
         <v>47</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D165" s="9" t="s">
         <v>593</v>
@@ -6172,9 +5791,7 @@
       <c r="E165" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F165" s="11" t="s">
-        <v>592</v>
-      </c>
+      <c r="F165" s="11"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
@@ -6184,7 +5801,7 @@
         <v>64</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>609</v>
@@ -6192,9 +5809,7 @@
       <c r="E166" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F166" s="7" t="s">
-        <v>724</v>
-      </c>
+      <c r="F166" s="7"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
@@ -6204,17 +5819,15 @@
         <v>10</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E167" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F167" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F167" s="7"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
@@ -6224,17 +5837,15 @@
         <v>10</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E168" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F168" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F168" s="11"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
@@ -6244,17 +5855,15 @@
         <v>10</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E169" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F169" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F169" s="11"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
@@ -6264,17 +5873,15 @@
         <v>10</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F170" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F170" s="7"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
@@ -6284,17 +5891,15 @@
         <v>154</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E171" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F171" s="7" t="s">
-        <v>684</v>
-      </c>
+      <c r="F171" s="7"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
@@ -6304,17 +5909,15 @@
         <v>47</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E172" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="F172" s="11" t="s">
-        <v>628</v>
-      </c>
+      <c r="F172" s="11"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
@@ -6324,17 +5927,15 @@
         <v>47</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>633</v>
+        <v>728</v>
       </c>
       <c r="E173" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="F173" s="7" t="s">
-        <v>685</v>
-      </c>
+      <c r="F173" s="7"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
@@ -6344,17 +5945,15 @@
         <v>10</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E174" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F174" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F174" s="7"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
@@ -6364,17 +5963,15 @@
         <v>10</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E175" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F175" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F175" s="11"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
@@ -6384,17 +5981,15 @@
         <v>10</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E176" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F176" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F176" s="7"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
@@ -6404,17 +5999,15 @@
         <v>10</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E177" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F177" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F177" s="11"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
@@ -6424,17 +6017,15 @@
         <v>10</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E178" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F178" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F178" s="7"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
@@ -6444,17 +6035,15 @@
         <v>10</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E179" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F179" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F179" s="11"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
@@ -6464,57 +6053,51 @@
         <v>10</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E180" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F180" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F180" s="7"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="D181" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="B181" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C181" s="9" t="s">
-        <v>715</v>
-      </c>
-      <c r="D181" s="9" t="s">
-        <v>653</v>
-      </c>
       <c r="E181" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F181" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F181" s="11"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B182" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E182" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F182" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F182" s="7"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
@@ -6524,17 +6107,15 @@
         <v>10</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E183" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F183" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F183" s="11"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
@@ -6544,17 +6125,15 @@
         <v>10</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E184" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F184" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F184" s="7"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
@@ -6564,17 +6143,15 @@
         <v>10</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E185" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F185" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F185" s="11"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
@@ -6584,17 +6161,15 @@
         <v>10</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E186" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F186" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F186" s="7"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
@@ -6604,17 +6179,15 @@
         <v>10</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E187" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="F187" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F187" s="11"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
@@ -6624,17 +6197,15 @@
         <v>10</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E188" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="F188" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F188" s="7"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
@@ -6644,17 +6215,15 @@
         <v>10</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E189" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="F189" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F189" s="11"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
@@ -6664,17 +6233,15 @@
         <v>10</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E190" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="F190" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F190" s="7"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
@@ -6684,17 +6251,15 @@
         <v>10</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E191" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="F191" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F191" s="11"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
@@ -6704,17 +6269,15 @@
         <v>10</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E192" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="F192" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F192" s="7"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
@@ -6724,17 +6287,15 @@
         <v>10</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E193" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="F193" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F193" s="11"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
@@ -6744,17 +6305,15 @@
         <v>10</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E194" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="F194" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F194" s="7"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="8" t="s">
@@ -6764,17 +6323,15 @@
         <v>10</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E195" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F195" s="11" t="s">
-        <v>725</v>
-      </c>
+      <c r="F195" s="11"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
@@ -6784,17 +6341,15 @@
         <v>10</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E196" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F196" s="7" t="s">
-        <v>725</v>
-      </c>
+      <c r="F196" s="7"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="8" t="s">
@@ -6804,17 +6359,15 @@
         <v>10</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E197" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F197" s="11" t="s">
-        <v>725</v>
-      </c>
+      <c r="F197" s="11"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
@@ -6824,17 +6377,15 @@
         <v>10</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E198" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F198" s="7" t="s">
-        <v>725</v>
-      </c>
+      <c r="F198" s="7"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="8" t="s">
@@ -6844,17 +6395,15 @@
         <v>10</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E199" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F199" s="11" t="s">
-        <v>725</v>
-      </c>
+      <c r="F199" s="11"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
@@ -6864,17 +6413,15 @@
         <v>10</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E200" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F200" s="7" t="s">
-        <v>725</v>
-      </c>
+      <c r="F200" s="7"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
@@ -6884,57 +6431,51 @@
         <v>10</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E201" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F201" s="11" t="s">
-        <v>725</v>
-      </c>
+      <c r="F201" s="11"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="D202" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="B202" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C202" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="D202" s="5" t="s">
-        <v>653</v>
-      </c>
       <c r="E202" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F202" s="7" t="s">
-        <v>725</v>
-      </c>
+      <c r="F202" s="7"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="8" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B203" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E203" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F203" s="11" t="s">
-        <v>725</v>
-      </c>
+      <c r="F203" s="11"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
@@ -6944,17 +6485,15 @@
         <v>10</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E204" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F204" s="7" t="s">
-        <v>725</v>
-      </c>
+      <c r="F204" s="7"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="8" t="s">
@@ -6964,17 +6503,15 @@
         <v>10</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E205" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F205" s="11" t="s">
-        <v>725</v>
-      </c>
+      <c r="F205" s="11"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
@@ -6984,17 +6521,15 @@
         <v>10</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E206" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F206" s="7" t="s">
-        <v>725</v>
-      </c>
+      <c r="F206" s="7"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="8" t="s">
@@ -7004,17 +6539,15 @@
         <v>10</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E207" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F207" s="11" t="s">
-        <v>725</v>
-      </c>
+      <c r="F207" s="11"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
@@ -7024,17 +6557,15 @@
         <v>10</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E208" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="F208" s="7" t="s">
-        <v>725</v>
-      </c>
+      <c r="F208" s="7"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="8" t="s">
@@ -7044,17 +6575,15 @@
         <v>10</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E209" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="F209" s="11" t="s">
-        <v>725</v>
-      </c>
+      <c r="F209" s="11"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
@@ -7064,17 +6593,15 @@
         <v>10</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E210" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="F210" s="7" t="s">
-        <v>725</v>
-      </c>
+      <c r="F210" s="7"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="8" t="s">
@@ -7084,17 +6611,15 @@
         <v>10</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E211" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="F211" s="11" t="s">
-        <v>725</v>
-      </c>
+      <c r="F211" s="11"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
@@ -7104,17 +6629,15 @@
         <v>10</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E212" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="F212" s="7" t="s">
-        <v>725</v>
-      </c>
+      <c r="F212" s="7"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="8" t="s">
@@ -7124,17 +6647,15 @@
         <v>10</v>
       </c>
       <c r="C213" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D213" s="9" t="s">
-        <v>664</v>
+        <v>727</v>
       </c>
       <c r="E213" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="F213" s="11" t="s">
-        <v>725</v>
-      </c>
+      <c r="F213" s="11"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
@@ -7144,17 +6665,15 @@
         <v>10</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E214" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="F214" s="7" t="s">
-        <v>725</v>
-      </c>
+      <c r="F214" s="7"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
@@ -7164,17 +6683,15 @@
         <v>10</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E215" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="F215" s="11" t="s">
-        <v>725</v>
-      </c>
+      <c r="F215" s="11"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
@@ -7192,9 +6709,7 @@
       <c r="E216" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F216" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F216" s="7"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="8" t="s">
@@ -7212,9 +6727,7 @@
       <c r="E217" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F217" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F217" s="11"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
@@ -7232,9 +6745,7 @@
       <c r="E218" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F218" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F218" s="7"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="8" t="s">
@@ -7252,9 +6763,7 @@
       <c r="E219" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F219" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F219" s="11"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="8" t="s">
@@ -7272,9 +6781,7 @@
       <c r="E220" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F220" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F220" s="11"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
@@ -7292,9 +6799,7 @@
       <c r="E221" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F221" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F221" s="7"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="8" t="s">
@@ -7312,9 +6817,7 @@
       <c r="E222" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F222" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F222" s="11"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
@@ -7332,9 +6835,7 @@
       <c r="E223" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F223" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F223" s="7"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="8" t="s">
@@ -7352,9 +6853,7 @@
       <c r="E224" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F224" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F224" s="11"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
@@ -7372,9 +6871,7 @@
       <c r="E225" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F225" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F225" s="7"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="8" t="s">
@@ -7392,9 +6889,7 @@
       <c r="E226" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F226" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F226" s="11"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
@@ -7407,14 +6902,12 @@
         <v>526</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>578</v>
+        <v>726</v>
       </c>
       <c r="E227" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F227" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F227" s="7"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="8" t="s">
@@ -7432,9 +6925,7 @@
       <c r="E228" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F228" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F228" s="11"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
@@ -7452,9 +6943,7 @@
       <c r="E229" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F229" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F229" s="7"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="s">
@@ -7472,9 +6961,7 @@
       <c r="E230" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F230" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F230" s="11"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
@@ -7492,9 +6979,7 @@
       <c r="E231" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F231" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F231" s="7"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="s">
@@ -7512,9 +6997,7 @@
       <c r="E232" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F232" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F232" s="11"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
@@ -7532,9 +7015,7 @@
       <c r="E233" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F233" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F233" s="7"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="8" t="s">
@@ -7552,9 +7033,7 @@
       <c r="E234" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F234" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F234" s="11"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
@@ -7572,9 +7051,7 @@
       <c r="E235" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F235" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F235" s="7"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="8" t="s">
@@ -7587,14 +7064,12 @@
         <v>526</v>
       </c>
       <c r="D236" s="9" t="s">
-        <v>587</v>
+        <v>725</v>
       </c>
       <c r="E236" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F236" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F236" s="11"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
@@ -7607,14 +7082,12 @@
         <v>332</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>333</v>
+        <v>716</v>
       </c>
       <c r="E237" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F237" s="7" t="s">
-        <v>323</v>
-      </c>
+      <c r="F237" s="7"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="8" t="s">
@@ -7632,29 +7105,25 @@
       <c r="E238" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F238" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F238" s="11"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B239" s="5" t="s">
         <v>614</v>
-      </c>
-      <c r="B239" s="5" t="s">
-        <v>615</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>332</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E239" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F239" s="7" t="s">
-        <v>617</v>
-      </c>
+      <c r="F239" s="7"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="8" t="s">
@@ -7667,14 +7136,12 @@
         <v>332</v>
       </c>
       <c r="D240" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E240" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F240" s="11" t="s">
-        <v>619</v>
-      </c>
+      <c r="F240" s="11"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
@@ -7687,14 +7154,12 @@
         <v>332</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E241" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F241" s="7" t="s">
-        <v>637</v>
-      </c>
+      <c r="F241" s="7"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
@@ -7707,14 +7172,12 @@
         <v>601</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>602</v>
+        <v>717</v>
       </c>
       <c r="E242" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F242" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F242" s="7"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="8" t="s">
@@ -7727,13 +7190,13 @@
         <v>611</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>612</v>
+        <v>722</v>
       </c>
       <c r="E243" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F243" s="11" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -7747,14 +7210,12 @@
         <v>90</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>91</v>
+        <v>724</v>
       </c>
       <c r="E244" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F244" s="11" t="s">
-        <v>92</v>
-      </c>
+      <c r="F244" s="11"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="8" t="s">
@@ -7772,17 +7233,19 @@
       <c r="E245" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F245" s="11" t="s">
-        <v>418</v>
-      </c>
+      <c r="F245" s="11"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F315">
     <sortCondition ref="C1:C315"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G108" r:id="rId1" xr:uid="{026C5D45-DAFF-4104-A99B-8432EB2F7C4F}"/>
+    <hyperlink ref="G109" r:id="rId2" xr:uid="{875CBC33-1ED0-429B-9F9B-6D7429CE7124}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B1 D1:E1" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -7793,8 +7256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273EE577-FBE1-469E-8DE3-0E73F8C250E7}">
   <dimension ref="A1:F415"/>
   <sheetViews>
-    <sheetView topLeftCell="A290" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F415"/>
+    <sheetView topLeftCell="D332" workbookViewId="0">
+      <selection activeCell="F351" sqref="F351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8103,7 +7566,7 @@
         <v>72</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -8143,7 +7606,7 @@
         <v>78</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8163,7 +7626,7 @@
         <v>75</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -8223,7 +7686,7 @@
         <v>75</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -8423,7 +7886,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -8823,7 +8286,7 @@
         <v>10</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -9123,7 +8586,7 @@
         <v>10</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -9323,7 +8786,7 @@
         <v>198</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -9863,7 +9326,7 @@
         <v>10</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -9963,7 +9426,7 @@
         <v>198</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -10723,7 +10186,7 @@
         <v>16</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -10883,7 +10346,7 @@
         <v>78</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -10963,7 +10426,7 @@
         <v>16</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -11023,7 +10486,7 @@
         <v>10</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -11123,7 +10586,7 @@
         <v>10</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -11143,7 +10606,7 @@
         <v>16</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -11163,7 +10626,7 @@
         <v>16</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -11303,7 +10766,7 @@
         <v>307</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -11503,7 +10966,7 @@
         <v>72</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -11603,7 +11066,7 @@
         <v>10</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -11703,7 +11166,7 @@
         <v>10</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -11823,7 +11286,7 @@
         <v>191</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -11843,7 +11306,7 @@
         <v>16</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -11863,7 +11326,7 @@
         <v>16</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -11963,7 +11426,7 @@
         <v>16</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -12183,7 +11646,7 @@
         <v>72</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -12223,7 +11686,7 @@
         <v>78</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -12243,7 +11706,7 @@
         <v>75</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -12283,7 +11746,7 @@
         <v>75</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -12343,7 +11806,7 @@
         <v>191</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -12363,7 +11826,7 @@
         <v>10</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -12403,7 +11866,7 @@
         <v>10</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -12443,7 +11906,7 @@
         <v>16</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -12463,7 +11926,7 @@
         <v>10</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -12483,7 +11946,7 @@
         <v>384</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -12503,7 +11966,7 @@
         <v>384</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -12823,7 +12286,7 @@
         <v>10</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -12843,7 +12306,7 @@
         <v>384</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -12863,7 +12326,7 @@
         <v>384</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -13083,7 +12546,7 @@
         <v>10</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -13183,7 +12646,7 @@
         <v>10</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -13243,7 +12706,7 @@
         <v>16</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -13343,7 +12806,7 @@
         <v>58</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -13363,7 +12826,7 @@
         <v>510</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -14823,27 +14286,27 @@
         <v>16</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>613</v>
+        <v>721</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B352" s="1" t="s">
         <v>614</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>615</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>332</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
@@ -14857,13 +14320,13 @@
         <v>332</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
@@ -14877,7 +14340,7 @@
         <v>8</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>10</v>
@@ -14897,7 +14360,7 @@
         <v>8</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>10</v>
@@ -14914,10 +14377,10 @@
         <v>10</v>
       </c>
       <c r="C356" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D356" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="D356" s="1" t="s">
-        <v>623</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>16</v>
@@ -14937,7 +14400,7 @@
         <v>8</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>10</v>
@@ -14957,7 +14420,7 @@
         <v>8</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>10</v>
@@ -14983,7 +14446,7 @@
         <v>10</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
@@ -14994,7 +14457,7 @@
         <v>13</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>197</v>
@@ -15003,7 +14466,7 @@
         <v>128</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
@@ -15023,7 +14486,7 @@
         <v>10</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
@@ -15043,7 +14506,7 @@
         <v>10</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
@@ -15063,7 +14526,7 @@
         <v>10</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
@@ -15083,7 +14546,7 @@
         <v>10</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
@@ -15094,16 +14557,16 @@
         <v>13</v>
       </c>
       <c r="C365" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="D365" s="1" t="s">
         <v>629</v>
-      </c>
-      <c r="D365" s="1" t="s">
-        <v>630</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>148</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
@@ -15117,13 +14580,13 @@
         <v>8</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
@@ -15137,13 +14600,13 @@
         <v>8</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>424</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
@@ -15157,13 +14620,13 @@
         <v>8</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>424</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
@@ -15174,16 +14637,16 @@
         <v>13</v>
       </c>
       <c r="C369" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D369" s="1" t="s">
         <v>634</v>
-      </c>
-      <c r="D369" s="1" t="s">
-        <v>635</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
@@ -15197,13 +14660,13 @@
         <v>332</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
@@ -15214,16 +14677,16 @@
         <v>64</v>
       </c>
       <c r="C371" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D371" s="1" t="s">
         <v>638</v>
-      </c>
-      <c r="D371" s="1" t="s">
-        <v>639</v>
       </c>
       <c r="E371" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
@@ -15234,16 +14697,16 @@
         <v>98</v>
       </c>
       <c r="C372" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D372" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="D372" s="1" t="s">
-        <v>642</v>
       </c>
       <c r="E372" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
@@ -15260,10 +14723,10 @@
         <v>306</v>
       </c>
       <c r="E373" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F373" s="1" t="s">
         <v>643</v>
-      </c>
-      <c r="F373" s="1" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
@@ -15277,7 +14740,7 @@
         <v>8</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E374" s="1" t="s">
         <v>10</v>
@@ -15297,7 +14760,7 @@
         <v>8</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E375" s="1" t="s">
         <v>10</v>
@@ -15317,7 +14780,7 @@
         <v>8</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>10</v>
@@ -15337,7 +14800,7 @@
         <v>8</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E377" s="1" t="s">
         <v>10</v>
@@ -15357,7 +14820,7 @@
         <v>8</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E378" s="1" t="s">
         <v>10</v>
@@ -15377,7 +14840,7 @@
         <v>8</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>10</v>
@@ -15397,7 +14860,7 @@
         <v>8</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>10</v>
@@ -15408,7 +14871,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>10</v>
@@ -15417,7 +14880,7 @@
         <v>8</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E381" s="1" t="s">
         <v>10</v>
@@ -15428,7 +14891,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>10</v>
@@ -15437,7 +14900,7 @@
         <v>8</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E382" s="1" t="s">
         <v>10</v>
@@ -15457,7 +14920,7 @@
         <v>8</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E383" s="1" t="s">
         <v>10</v>
@@ -15477,7 +14940,7 @@
         <v>8</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>10</v>
@@ -15497,7 +14960,7 @@
         <v>8</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E385" s="1" t="s">
         <v>10</v>
@@ -15517,7 +14980,7 @@
         <v>8</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>10</v>
@@ -15537,7 +15000,7 @@
         <v>8</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E387" s="1" t="s">
         <v>457</v>
@@ -15557,7 +15020,7 @@
         <v>8</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E388" s="1" t="s">
         <v>457</v>
@@ -15577,7 +15040,7 @@
         <v>8</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E389" s="1" t="s">
         <v>457</v>
@@ -15597,7 +15060,7 @@
         <v>8</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>457</v>
@@ -15617,7 +15080,7 @@
         <v>8</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E391" s="1" t="s">
         <v>457</v>
@@ -15637,7 +15100,7 @@
         <v>8</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E392" s="1" t="s">
         <v>457</v>
@@ -15657,7 +15120,7 @@
         <v>8</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E393" s="1" t="s">
         <v>457</v>
@@ -15677,7 +15140,7 @@
         <v>8</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E394" s="1" t="s">
         <v>457</v>
@@ -15697,13 +15160,13 @@
         <v>8</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E395" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
@@ -15717,13 +15180,13 @@
         <v>8</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E396" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
@@ -15737,13 +15200,13 @@
         <v>8</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E397" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
@@ -15757,13 +15220,13 @@
         <v>8</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E398" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
@@ -15777,13 +15240,13 @@
         <v>8</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E399" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
@@ -15797,13 +15260,13 @@
         <v>8</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E400" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
@@ -15817,18 +15280,18 @@
         <v>8</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E401" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>10</v>
@@ -15837,18 +15300,18 @@
         <v>8</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E402" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>10</v>
@@ -15857,13 +15320,13 @@
         <v>8</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E403" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
@@ -15877,13 +15340,13 @@
         <v>8</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E404" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
@@ -15897,13 +15360,13 @@
         <v>8</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E405" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
@@ -15917,13 +15380,13 @@
         <v>8</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E406" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
@@ -15937,13 +15400,13 @@
         <v>8</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E407" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
@@ -15957,13 +15420,13 @@
         <v>8</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E408" s="1" t="s">
         <v>457</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
@@ -15977,13 +15440,13 @@
         <v>8</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E409" s="1" t="s">
         <v>457</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
@@ -15997,13 +15460,13 @@
         <v>8</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E410" s="1" t="s">
         <v>457</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
@@ -16017,13 +15480,13 @@
         <v>8</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E411" s="1" t="s">
         <v>457</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
@@ -16037,13 +15500,13 @@
         <v>8</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E412" s="1" t="s">
         <v>457</v>
       </c>
       <c r="F412" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
@@ -16057,13 +15520,13 @@
         <v>8</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E413" s="1" t="s">
         <v>457</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
@@ -16077,13 +15540,13 @@
         <v>8</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E414" s="1" t="s">
         <v>457</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
@@ -16097,13 +15560,13 @@
         <v>8</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E415" s="1" t="s">
         <v>457</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
